--- a/TC-EroomRent-Reg.xlsx
+++ b/TC-EroomRent-Reg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Test Case Report ID</t>
   </si>
@@ -147,43 +147,109 @@
     <t>form elements should be properly visible in all screen</t>
   </si>
   <si>
+    <t>Bug Priority</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Url:-https://eroomrent.in/brokerreg.php</t>
+  </si>
+  <si>
+    <t>Verify Search module of front page</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>ER-102</t>
+  </si>
+  <si>
+    <t>verify  search form title</t>
+  </si>
+  <si>
+    <t>verfiy category dropdownlist with search property</t>
+  </si>
+  <si>
+    <t>verify subcategory dropdownlist with search property</t>
+  </si>
+  <si>
+    <t>verify location dropdownlist with search property</t>
+  </si>
+  <si>
+    <t>verify combination of category and subcategory dropdownlist with search property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify combination of subcategory and location dropdownlist with search property </t>
+  </si>
+  <si>
+    <t>verify combination of category and location dropdownlist with  search property</t>
+  </si>
+  <si>
+    <t>verify alignment, content  of all form elements.</t>
+  </si>
+  <si>
+    <t>verify responsive features of search form</t>
+  </si>
+  <si>
+    <t>it should be relevant to search room, flats and pg.</t>
+  </si>
+  <si>
+    <t>for should contain category, subcategory, location and search property button</t>
+  </si>
+  <si>
+    <t>category dropdownlist should contain "what do you want to search" as a default text and display category list when we click on scroll button</t>
+  </si>
+  <si>
+    <t>it should contain "select subcategory" as a default text, when we click on category then  subcategory item will be diplayed.</t>
+  </si>
+  <si>
+    <t>it should contain location of indore city that will be entered by the admin.</t>
+  </si>
+  <si>
+    <t>verify combination of  category, subcategory and location dropdownlist with search property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should display matching property into separate search page with related properties of room, if property not match then display acknowledgement message of property not available . </t>
+  </si>
+  <si>
+    <t>it will show error message to "select location"</t>
+  </si>
+  <si>
+    <t>it show error message "select subcategory"</t>
+  </si>
+  <si>
+    <t>subcategory should not be selected, before selection of category</t>
+  </si>
+  <si>
+    <t>it should be properly aligned, all content should be spelled</t>
+  </si>
+  <si>
+    <t>it should be compatible with all screen</t>
+  </si>
+  <si>
+    <t>not as per expected</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>space should be contain between words</t>
+  </si>
+  <si>
     <t>as per expected</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>not as per expected</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>Bug Priority</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Full name content is not in proper case</t>
-  </si>
-  <si>
     <t>high</t>
-  </si>
-  <si>
-    <t>name field accepting numerical char</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is accepting - symbol </t>
-  </si>
-  <si>
-    <t>weak password is accepting</t>
-  </si>
-  <si>
-    <t>Url:-https://eroomrent.in/brokerreg.php</t>
   </si>
 </sst>
 </file>
@@ -561,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
@@ -673,10 +739,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -689,12 +755,6 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9">
@@ -706,18 +766,6 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
@@ -732,18 +780,6 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
@@ -755,18 +791,6 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -778,18 +802,6 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
@@ -801,12 +813,6 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
@@ -818,15 +824,6 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
@@ -838,12 +835,6 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
@@ -855,17 +846,8 @@
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>10</v>
       </c>
@@ -875,14 +857,8 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>11</v>
       </c>
@@ -891,12 +867,6 @@
       </c>
       <c r="D18" t="s">
         <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -910,13 +880,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="118.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="30">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
